--- a/outputs/new_speed_matrix_weights.xlsx
+++ b/outputs/new_speed_matrix_weights.xlsx
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2024-11-25</t>
         </is>
       </c>
     </row>
